--- a/scenarios_and_results/Scenario_low_discount_B.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_B.xlsx
@@ -696,73 +696,73 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>5042.254675487405</v>
+        <v>5042.254675487406</v>
       </c>
       <c r="C3">
-        <v>1.890240432746718</v>
+        <v>1.890240432746719</v>
       </c>
       <c r="D3">
-        <v>7.462328535364195</v>
+        <v>7.462328535364203</v>
       </c>
       <c r="E3">
-        <v>7.462328535364195</v>
+        <v>7.462328535364203</v>
       </c>
       <c r="F3">
         <v>0.1186543526688467</v>
       </c>
       <c r="G3">
-        <v>7.462328535364194E-05</v>
+        <v>7.462328535364204E-05</v>
       </c>
       <c r="H3">
-        <v>0.1187289759542003</v>
+        <v>0.1187289759542004</v>
       </c>
       <c r="I3">
-        <v>7.462328535364194E-05</v>
+        <v>7.462328535364204E-05</v>
       </c>
       <c r="J3">
-        <v>7.462328535364195</v>
+        <v>7.462328535364203</v>
       </c>
       <c r="K3">
-        <v>0.1187289759542003</v>
+        <v>0.1187289759542004</v>
       </c>
       <c r="L3">
-        <v>0.587405384799624</v>
+        <v>0.5874053847996219</v>
       </c>
       <c r="M3">
-        <v>15.91044610158079</v>
+        <v>15.91044610158078</v>
       </c>
       <c r="N3">
-        <v>0.1689450539252916</v>
+        <v>0.1689450539252918</v>
       </c>
       <c r="O3">
-        <v>0.1689450539252916</v>
+        <v>0.1689450539252918</v>
       </c>
       <c r="P3">
-        <v>0.1187289759540311</v>
+        <v>0.118728975954031</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>15.9104461015581</v>
+        <v>15.91044610155808</v>
       </c>
       <c r="S3">
-        <v>15.91044610158079</v>
+        <v>15.91044610158078</v>
       </c>
       <c r="T3">
-        <v>15.90044610158079</v>
+        <v>15.90044610158078</v>
       </c>
       <c r="U3">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3.057021983485701</v>
+        <v>3.055555302077243</v>
       </c>
       <c r="X3">
-        <v>4.405306551878495</v>
+        <v>4.40677323328696</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -773,61 +773,61 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2356.90443417699</v>
+        <v>2356.904434177</v>
       </c>
       <c r="C4">
-        <v>2.269863953422834</v>
+        <v>2.269863953422843</v>
       </c>
       <c r="D4">
-        <v>5.241553193452008</v>
+        <v>5.24155319345206</v>
       </c>
       <c r="E4">
-        <v>5.241553193452008</v>
+        <v>5.24155319345206</v>
       </c>
       <c r="F4">
-        <v>0.1456050488790547</v>
+        <v>0.1456050488790553</v>
       </c>
       <c r="G4">
-        <v>0.006394694896011449</v>
+        <v>0.006394694896011513</v>
       </c>
       <c r="H4">
-        <v>0.1519997437750662</v>
+        <v>0.1519997437750668</v>
       </c>
       <c r="I4">
-        <v>0.006394694896011449</v>
+        <v>0.006394694896011513</v>
       </c>
       <c r="J4">
-        <v>5.241553193452008</v>
+        <v>5.24155319345206</v>
       </c>
       <c r="K4">
-        <v>0.1519997437750662</v>
+        <v>0.1519997437750668</v>
       </c>
       <c r="L4">
-        <v>0.4125946152003759</v>
+        <v>0.4125946152003781</v>
       </c>
       <c r="M4">
-        <v>28.9989890715888</v>
+        <v>28.99898907158864</v>
       </c>
       <c r="N4">
-        <v>0.253871481802044</v>
+        <v>0.2538714818020454</v>
       </c>
       <c r="O4">
-        <v>0.253871481802044</v>
+        <v>0.2538714818020454</v>
       </c>
       <c r="P4">
-        <v>0.1519997437749548</v>
+        <v>0.1519997437749557</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>28.99898907156756</v>
+        <v>28.99898907156744</v>
       </c>
       <c r="S4">
-        <v>28.9989890715888</v>
+        <v>28.99898907158864</v>
       </c>
       <c r="T4">
-        <v>27.7789890715888</v>
+        <v>27.77898907158864</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.724508786127992</v>
+        <v>3.726104479015122</v>
       </c>
       <c r="X4">
-        <v>1.517044407324016</v>
+        <v>1.515448714436938</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -912,76 +912,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>334.8488910169623</v>
+        <v>334.8488910169617</v>
       </c>
       <c r="C6">
-        <v>0.1379041672764258</v>
+        <v>0.1379041672764255</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1198378958633799</v>
+        <v>0.1198378958633782</v>
       </c>
       <c r="F6">
-        <v>0.01057934083064791</v>
+        <v>0.01057934083064789</v>
       </c>
       <c r="G6">
-        <v>0.0005392705313852096</v>
+        <v>0.000539270531385202</v>
       </c>
       <c r="H6">
-        <v>0.01111861136203312</v>
+        <v>0.01111861136203309</v>
       </c>
       <c r="I6">
-        <v>5.849869921803476E-17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.257722033187747E-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01057934083064797</v>
+        <v>0.01057934083064789</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8411509500103293</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.287772138912005E-16</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04085462268371785</v>
+        <v>0.04085462268371735</v>
       </c>
       <c r="P6">
-        <v>0.02497054957051291</v>
+        <v>0.02497054957051266</v>
       </c>
       <c r="Q6">
-        <v>0.01385193820847338</v>
+        <v>0.01385193820847314</v>
       </c>
       <c r="R6">
-        <v>208.3693925916418</v>
+        <v>208.3693925916427</v>
       </c>
       <c r="S6">
-        <v>208.3693925915883</v>
+        <v>208.3693925915891</v>
       </c>
       <c r="T6">
-        <v>88.28042877779484</v>
+        <v>88.2804287777959</v>
       </c>
       <c r="U6">
-        <v>4.499999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="V6">
-        <v>115.5889638137935</v>
+        <v>115.5889638137932</v>
       </c>
       <c r="W6">
-        <v>0.1198378958633799</v>
+        <v>0.1198378958633782</v>
       </c>
       <c r="X6">
-        <v>5.473350130284775E-17</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.1198378958633787</v>
+        <v>0.1198378958633782</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1312,76 +1312,76 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>2.381872820698649</v>
+        <v>2.381872820698652</v>
       </c>
       <c r="C4">
-        <v>1.148503062525301</v>
+        <v>1.148503062525297</v>
       </c>
       <c r="D4">
-        <v>1.148503062525775</v>
+        <v>1.148503062525772</v>
       </c>
       <c r="E4">
-        <v>123.5261166387559</v>
+        <v>123.5261166387561</v>
       </c>
       <c r="F4">
         <v>15.07879140435295</v>
       </c>
       <c r="G4">
-        <v>13.12908245206751</v>
+        <v>13.12908245206755</v>
       </c>
       <c r="H4">
-        <v>1.862624545785573</v>
+        <v>1.862624545785575</v>
       </c>
       <c r="I4">
-        <v>1.858631334523699</v>
+        <v>1.85850232304503</v>
       </c>
       <c r="J4">
-        <v>0.08800575540728149</v>
+        <v>0.08800575540728131</v>
       </c>
       <c r="K4">
-        <v>0.001862624545785573</v>
+        <v>0.001862624545785575</v>
       </c>
       <c r="L4">
-        <v>0.08986837995306707</v>
+        <v>0.08986837995306689</v>
       </c>
       <c r="M4">
-        <v>0.04162727264030537</v>
+        <v>0.04162727264030519</v>
       </c>
       <c r="N4">
-        <v>0.1314956525933837</v>
+        <v>0.1314956525933847</v>
       </c>
       <c r="O4">
-        <v>1.862624545785573</v>
+        <v>1.862624545785575</v>
       </c>
       <c r="P4">
-        <v>70.59697183251355</v>
+        <v>70.59697183251329</v>
       </c>
       <c r="Q4">
-        <v>0.2367458119234249</v>
+        <v>0.2367458119234259</v>
       </c>
       <c r="R4">
-        <v>0.1851352249239651</v>
+        <v>0.1851352249239659</v>
       </c>
       <c r="S4">
-        <v>2.021910100015544</v>
+        <v>2.02191010001554</v>
       </c>
       <c r="T4">
-        <v>1.221226276444402</v>
+        <v>1.221226276444399</v>
       </c>
       <c r="U4">
-        <v>0.8006838235711418</v>
+        <v>0.8006838235711417</v>
       </c>
       <c r="V4">
-        <v>70.59697183251961</v>
+        <v>70.59697183252004</v>
       </c>
       <c r="W4">
-        <v>47.24825279813144</v>
+        <v>47.24825279813129</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>22.34871903438211</v>
+        <v>22.34871903438199</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1389,13 +1389,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>3.442296437030568</v>
+        <v>3.442296437030618</v>
       </c>
       <c r="C5">
-        <v>0.9957773673230053</v>
+        <v>0.9957773673230107</v>
       </c>
       <c r="D5">
-        <v>0.7368752518190239</v>
+        <v>0.7368752518190279</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1413,52 +1413,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03740052621337129</v>
+        <v>0.03740052621337149</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03740052621337129</v>
+        <v>0.03740052621337149</v>
       </c>
       <c r="M5">
-        <v>0.0375931713327095</v>
+        <v>0.03759317133270965</v>
       </c>
       <c r="N5">
-        <v>0.07499369754605339</v>
+        <v>0.07499369754605487</v>
       </c>
       <c r="O5">
-        <v>2.547299363402621</v>
+        <v>2.547299363402657</v>
       </c>
       <c r="P5">
-        <v>29.44047277030919</v>
+        <v>29.44047277030891</v>
       </c>
       <c r="Q5">
-        <v>0.3946225603914844</v>
+        <v>0.3946225603914879</v>
       </c>
       <c r="R5">
-        <v>0.3946225603914844</v>
+        <v>0.3946225603914879</v>
       </c>
       <c r="S5">
-        <v>0.4480998152953524</v>
+        <v>0.4480998152953549</v>
       </c>
       <c r="T5">
-        <v>0.4480998152953524</v>
+        <v>0.4480998152953549</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>29.44047277029843</v>
+        <v>29.44047277029859</v>
       </c>
       <c r="W5">
-        <v>14.68242278497356</v>
+        <v>14.68242278497343</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>14.75804998533563</v>
+        <v>14.75804998533548</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1466,22 +1466,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.05768117879576394</v>
+        <v>0.05768117879576445</v>
       </c>
       <c r="C6">
-        <v>0.4698462006103739</v>
+        <v>0.4698462006103761</v>
       </c>
       <c r="D6">
-        <v>0.3067635040288335</v>
+        <v>0.3067635040288369</v>
       </c>
       <c r="E6">
-        <v>27.20518004017959</v>
+        <v>27.20518004017988</v>
       </c>
       <c r="F6">
-        <v>42.40455583133362</v>
+        <v>42.40455583133355</v>
       </c>
       <c r="G6">
-        <v>138.2320754405906</v>
+        <v>138.2320754405888</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1490,52 +1490,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01091966549141961</v>
+        <v>0.0109196654914196</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01091966549141961</v>
+        <v>0.0109196654914196</v>
       </c>
       <c r="M6">
-        <v>0.03859268491341634</v>
+        <v>0.03859268491341705</v>
       </c>
       <c r="N6">
-        <v>0.04951235040483719</v>
+        <v>0.04951235040483784</v>
       </c>
       <c r="O6">
-        <v>1.153623575915278</v>
+        <v>1.153623575915289</v>
       </c>
       <c r="P6">
-        <v>42.91898279345855</v>
+        <v>42.91898279345875</v>
       </c>
       <c r="Q6">
-        <v>0.2943022595550658</v>
+        <v>0.2943022595550669</v>
       </c>
       <c r="R6">
-        <v>0.4292954908320723</v>
+        <v>0.4292954908320715</v>
       </c>
       <c r="S6">
-        <v>0.1172658028668038</v>
+        <v>0.1172658028668037</v>
       </c>
       <c r="T6">
-        <v>0.002773502122203036</v>
+        <v>0.00277350212220305</v>
       </c>
       <c r="U6">
-        <v>0.1144923007446008</v>
+        <v>0.1144923007446006</v>
       </c>
       <c r="V6">
-        <v>42.91898279345962</v>
+        <v>42.91898279345979</v>
       </c>
       <c r="W6">
-        <v>9.465536002726029</v>
+        <v>9.465536002725928</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>33.45344679073252</v>
+        <v>33.45344679073283</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1546,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05676350402883348</v>
+        <v>0.05676350402883936</v>
       </c>
       <c r="D7">
-        <v>0.778718351202238</v>
+        <v>0.7787183512022363</v>
       </c>
       <c r="E7">
-        <v>3.794236339291193</v>
+        <v>3.795937512100742</v>
       </c>
       <c r="F7">
-        <v>73.45161348849653</v>
+        <v>73.41869569486663</v>
       </c>
       <c r="G7">
-        <v>94.32372227403781</v>
+        <v>94.28145051611799</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1567,52 +1567,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.002095120581141801</v>
+        <v>0.002095120581141689</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.002095120581141801</v>
+        <v>0.002095120581141689</v>
       </c>
       <c r="M7">
-        <v>0.01175681762805792</v>
+        <v>0.01175681762805918</v>
       </c>
       <c r="N7">
-        <v>0.01385193820847323</v>
+        <v>0.01385193820847462</v>
       </c>
       <c r="O7">
-        <v>0.2786927810776247</v>
+        <v>0.2786927810776535</v>
       </c>
       <c r="P7">
-        <v>49.70325444253801</v>
+        <v>49.70325444253697</v>
       </c>
       <c r="Q7">
-        <v>0.7185532193577164</v>
+        <v>0.7185532193577161</v>
       </c>
       <c r="R7">
-        <v>0.0408546226837174</v>
+        <v>0.0408546226837217</v>
       </c>
       <c r="S7">
-        <v>0.02127788056499849</v>
+        <v>0.0212778805650007</v>
       </c>
       <c r="T7">
-        <v>0.02127788056499849</v>
+        <v>0.0212778805650007</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>49.70325443993121</v>
+        <v>49.70325443993107</v>
       </c>
       <c r="W7">
-        <v>7.51767079520529</v>
+        <v>7.517670795204113</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>42.18558364733272</v>
+        <v>42.18558364733286</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1620,13 +1620,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.01545082666825804</v>
+        <v>0.01545082666825963</v>
       </c>
       <c r="C8">
-        <v>0.00245464490471029</v>
+        <v>0.002454644904710513</v>
       </c>
       <c r="D8">
-        <v>0.00876658894539389</v>
+        <v>0.00876658894539469</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1644,52 +1644,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.004136592887966813</v>
+        <v>0.004136592887967191</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.004136592887966813</v>
+        <v>0.004136592887967191</v>
       </c>
       <c r="M8">
-        <v>0.001585795889397513</v>
+        <v>0.001585795889397197</v>
       </c>
       <c r="N8">
-        <v>0.005722388777363459</v>
+        <v>0.00572238877736404</v>
       </c>
       <c r="O8">
-        <v>0.05518152381520727</v>
+        <v>0.05518152381521298</v>
       </c>
       <c r="P8">
-        <v>103.701173540034</v>
+        <v>103.7011735400244</v>
       </c>
       <c r="Q8">
-        <v>0.7185532193577163</v>
+        <v>0.718553219357725</v>
       </c>
       <c r="R8">
-        <v>0.7185532193577162</v>
+        <v>0.7185532193577251</v>
       </c>
       <c r="S8">
-        <v>0.009818579618841158</v>
+        <v>0.009818579618842053</v>
       </c>
       <c r="T8">
-        <v>0.009818579618841158</v>
+        <v>0.009818579618842053</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>103.7011735400183</v>
+        <v>103.701173540018</v>
       </c>
       <c r="W8">
-        <v>74.96336820671171</v>
+        <v>74.96336820671078</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>28.73780533332227</v>
+        <v>28.73780533331357</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1697,13 +1697,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.02904290727114623</v>
+        <v>0.02904290727114924</v>
       </c>
       <c r="C9">
-        <v>0.004613994181783798</v>
+        <v>0.004613994181784456</v>
       </c>
       <c r="D9">
-        <v>0.01314988341808382</v>
+        <v>0.0131498834180857</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1721,52 +1721,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0006394170910468549</v>
       </c>
       <c r="K9">
-        <v>0.0002582495314550323</v>
+        <v>0.0002582495314550591</v>
       </c>
       <c r="L9">
-        <v>0.0002582495314550323</v>
+        <v>0.000897666622501914</v>
       </c>
       <c r="M9">
-        <v>0.000449170539748637</v>
+        <v>0.000449170539748354</v>
       </c>
       <c r="N9">
-        <v>0.001346837162250393</v>
+        <v>0.001346837162250228</v>
       </c>
       <c r="O9">
-        <v>0.08277228572276675</v>
+        <v>0.08277228572277531</v>
       </c>
       <c r="P9">
-        <v>8.546581322800071</v>
+        <v>16.27159562514868</v>
       </c>
       <c r="Q9">
-        <v>0.7185532193577161</v>
+        <v>0.7185532193576882</v>
       </c>
       <c r="R9">
-        <v>0.7185532193577161</v>
+        <v>0.7185532193576878</v>
       </c>
       <c r="S9">
-        <v>0.009204918392658678</v>
+        <v>0.009204918392659991</v>
       </c>
       <c r="T9">
-        <v>0.009204918392658678</v>
+        <v>0.009204918392659991</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>16.27159562515188</v>
+        <v>16.2715956251482</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>7.725014302352597</v>
       </c>
       <c r="X9">
-        <v>3.12</v>
+        <v>3.120000000000002</v>
       </c>
       <c r="Y9">
-        <v>5.42658132280007</v>
+        <v>5.42658132279609</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006136612261778105</v>
+        <v>0.006136612261778704</v>
       </c>
       <c r="D10">
-        <v>0.008766588945397398</v>
+        <v>0.008766588945398305</v>
       </c>
       <c r="E10">
-        <v>15.54270328521186</v>
+        <v>15.54270328522244</v>
       </c>
       <c r="F10">
-        <v>0.455862625160665</v>
+        <v>0.4558626251607171</v>
       </c>
       <c r="G10">
-        <v>52.00000000000004</v>
+        <v>52.00000000000059</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1798,52 +1798,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.919410390141329E-05</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.919410390141329E-05</v>
       </c>
       <c r="M10">
-        <v>0.0004202120128765721</v>
+        <v>0.0004202120128771134</v>
       </c>
       <c r="N10">
-        <v>0.0004994061167781211</v>
+        <v>0.0004994061167786708</v>
       </c>
       <c r="O10">
-        <v>0.007085337521689972</v>
+        <v>0.007085337521695601</v>
       </c>
       <c r="P10">
-        <v>59.30726822684157</v>
+        <v>70.48444978793518</v>
       </c>
       <c r="Q10">
-        <v>0.1318037460585497</v>
+        <v>0.1318037460586418</v>
       </c>
       <c r="R10">
-        <v>0.09226262224098372</v>
+        <v>0.09226262224104749</v>
       </c>
       <c r="S10">
-        <v>0.001152498213052439</v>
+        <v>0.00115249821305257</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.001152498213052439</v>
+        <v>0.00115249821305257</v>
       </c>
       <c r="V10">
-        <v>70.48444978793393</v>
+        <v>70.48444978795553</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>11.17718156106433</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>59.30726822684157</v>
+        <v>59.30726822687085</v>
       </c>
     </row>
   </sheetData>
